--- a/project/GLIMMER_Uniprot_evaluation.xlsx
+++ b/project/GLIMMER_Uniprot_evaluation.xlsx
@@ -1,19 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\itisf\Desktop\comparative_genomics\project\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="7530" tabRatio="993" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="NCBI and Uniprot" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Glimmer evaluation" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Uniprot evaluation" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="Sheet4" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="NCBI and Uniprot" sheetId="1" r:id="rId1"/>
+    <sheet name="Glimmer evaluation" sheetId="2" r:id="rId2"/>
+    <sheet name="Uniprot evaluation" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">'Glimmer evaluation'!$I$2:$I$6</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'Glimmer evaluation'!$J$1</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'Glimmer evaluation'!$J$2:$J$6</definedName>
+  </definedNames>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
@@ -23,149 +32,162 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="38">
   <si>
-    <t xml:space="preserve">Pred</t>
+    <t>Pred</t>
   </si>
   <si>
-    <t xml:space="preserve">Evaluation of prediction</t>
+    <t>Evaluation of prediction</t>
   </si>
   <si>
     <t xml:space="preserve">Genome ID </t>
   </si>
   <si>
-    <t xml:space="preserve">Species</t>
+    <t>Species</t>
   </si>
   <si>
-    <t xml:space="preserve">#Genes</t>
+    <t>#Genes</t>
   </si>
   <si>
-    <t xml:space="preserve">Size of genome</t>
+    <t>Size of genome</t>
   </si>
   <si>
-    <t xml:space="preserve">Gene density(genes/kb)</t>
+    <t>Gene density(genes/kb)</t>
   </si>
   <si>
-    <t xml:space="preserve">GC value</t>
+    <t>GC value</t>
   </si>
   <si>
-    <t xml:space="preserve">#proteins</t>
+    <t>#proteins</t>
   </si>
   <si>
-    <t xml:space="preserve">#predicted genes</t>
+    <t>#predicted genes</t>
   </si>
   <si>
-    <t xml:space="preserve">prediction correlation coefficent</t>
+    <t>prediction correlation coefficent</t>
   </si>
   <si>
-    <t xml:space="preserve">True positive prediction</t>
+    <t>True positive prediction</t>
   </si>
   <si>
-    <t xml:space="preserve">specificity</t>
+    <t>specificity</t>
   </si>
   <si>
-    <t xml:space="preserve">Sensitivity</t>
+    <t>Sensitivity</t>
   </si>
   <si>
-    <t xml:space="preserve">Escherichia coli</t>
+    <t>Escherichia coli</t>
   </si>
   <si>
-    <t xml:space="preserve">Streptomyces coelicolor</t>
+    <t>Streptomyces coelicolor</t>
   </si>
   <si>
-    <t xml:space="preserve">Saccharomyces cerevisiae</t>
+    <t>Saccharomyces cerevisiae</t>
   </si>
   <si>
-    <t xml:space="preserve">Rubrobacter xylanophilus</t>
+    <t>Rubrobacter xylanophilus</t>
   </si>
   <si>
-    <t xml:space="preserve">Spiribacter curvatus</t>
+    <t>Spiribacter curvatus</t>
   </si>
   <si>
-    <t xml:space="preserve">TP</t>
+    <t>sensitivity</t>
   </si>
   <si>
-    <t xml:space="preserve">predicted ORF</t>
+    <t>AC</t>
   </si>
   <si>
-    <t xml:space="preserve">average true length</t>
+    <t>Uniprot protein number</t>
   </si>
   <si>
-    <t xml:space="preserve">average predicted length </t>
+    <t>Predicted gene number</t>
   </si>
   <si>
-    <t xml:space="preserve">sensitivity</t>
+    <t>Reciprocal best hit number (TP)</t>
   </si>
   <si>
-    <t xml:space="preserve">AC</t>
+    <t>FP</t>
   </si>
   <si>
-    <t xml:space="preserve">Saccharomyces cerevisiae ch4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uniprot protein number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Predicted gene number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reciprocal best hit number (TP)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Specificity</t>
+    <t>Specificity</t>
   </si>
   <si>
     <t xml:space="preserve">Saccharomyces cerevisiae ch4 </t>
+  </si>
+  <si>
+    <t>FN</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>F1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>E. coli</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>S. coelicolor</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>S. cerevisiae ch4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>R. xylanophilus</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>S. curvatus</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">No. of GLIMMER ORF </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>No. of Fumish ORF</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ave. GLIMMER length(bp)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Ave. Fumish length(bp) </t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
-    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="176" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
+    <numFmt numFmtId="177" formatCode="0.000"/>
+    <numFmt numFmtId="178" formatCode="0.000_ "/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
+      <b/>
       <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="13"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
-      <b val="true"/>
+      <i/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -180,7 +202,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -188,77 +210,45 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="11">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-  </cellStyleXfs>
-  <cellXfs count="9">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -317,30 +307,50 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
+  <c:style val="2"/>
   <c:chart>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.136303981001187"/>
-          <c:y val="0.0197667962243198"/>
-          <c:w val="0.604524717205175"/>
-          <c:h val="0.741254858411993"/>
+          <c:x val="0.13630398100118701"/>
+          <c:y val="1.9766796224319799E-2"/>
+          <c:w val="0.60452471720517498"/>
+          <c:h val="0.74125485841199301"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="1"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -356,9 +366,6 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
             <a:ln w="28800">
               <a:solidFill>
                 <a:srgbClr val="004586"/>
@@ -376,12 +383,25 @@
             </c:spPr>
           </c:marker>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -413,24 +433,29 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.772199959590517</c:v>
+                  <c:v>0.77219995959051735</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.708385071743929</c:v>
+                  <c:v>0.70838507174392928</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.503517245850622</c:v>
+                  <c:v>0.50351724585062241</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.984725715944273</c:v>
+                  <c:v>0.98472571594427249</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.965430699481865</c:v>
+                  <c:v>0.96543069948186533</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D574-4184-A330-F9C95BCEA4AA}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -447,12 +472,9 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ff420e"/>
-            </a:solidFill>
             <a:ln w="28800">
               <a:solidFill>
-                <a:srgbClr val="ff420e"/>
+                <a:srgbClr val="FF420E"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -462,17 +484,30 @@
             <c:size val="8"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ff420e"/>
+                <a:srgbClr val="FF420E"/>
               </a:solidFill>
             </c:spPr>
           </c:marker>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -522,6 +557,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D574-4184-A330-F9C95BCEA4AA}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -538,12 +578,9 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ffd320"/>
-            </a:solidFill>
             <a:ln w="28800">
               <a:solidFill>
-                <a:srgbClr val="ffd320"/>
+                <a:srgbClr val="FFD320"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -553,17 +590,30 @@
             <c:size val="8"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ffd320"/>
+                <a:srgbClr val="FFD320"/>
               </a:solidFill>
             </c:spPr>
           </c:marker>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -595,24 +645,29 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.855784836540691</c:v>
+                  <c:v>0.85578483654069093</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.51856163497607</c:v>
+                  <c:v>0.51856163497607033</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.924577373211963</c:v>
+                  <c:v>0.92457737321196354</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.622001918771986</c:v>
+                  <c:v>0.62200191877198596</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.784524449220849</c:v>
+                  <c:v>0.78452444922084896</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-D574-4184-A330-F9C95BCEA4AA}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -629,12 +684,9 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="579d1c"/>
-            </a:solidFill>
             <a:ln w="28800">
               <a:solidFill>
-                <a:srgbClr val="579d1c"/>
+                <a:srgbClr val="579D1C"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -644,17 +696,30 @@
             <c:size val="8"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="579d1c"/>
+                <a:srgbClr val="579D1C"/>
               </a:solidFill>
             </c:spPr>
           </c:marker>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -686,25 +751,38 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.726717857846033</c:v>
+                  <c:v>0.72671785784603271</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.558979364194088</c:v>
+                  <c:v>0.55897936419408811</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.982044198895028</c:v>
+                  <c:v>0.98204419889502759</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.700143988480922</c:v>
+                  <c:v>0.70014398848092152</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.830489192263936</c:v>
+                  <c:v>0.83048919226393625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-D574-4184-A330-F9C95BCEA4AA}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:hiLowLines>
           <c:spPr>
             <a:ln>
@@ -713,6 +791,7 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
+        <c:smooth val="0"/>
         <c:axId val="50830225"/>
         <c:axId val="61494644"/>
       </c:lineChart>
@@ -730,26 +809,28 @@
         <c:spPr>
           <a:ln>
             <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
+              <a:srgbClr val="B3B3B3"/>
             </a:solidFill>
           </a:ln>
         </c:spPr>
         <c:txPr>
           <a:bodyPr/>
+          <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:uFill>
                   <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a:uFill>
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="61494644"/>
@@ -757,6 +838,7 @@
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="61494644"/>
@@ -769,7 +851,7 @@
           <c:spPr>
             <a:ln>
               <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
+                <a:srgbClr val="B3B3B3"/>
               </a:solidFill>
             </a:ln>
           </c:spPr>
@@ -781,26 +863,28 @@
         <c:spPr>
           <a:ln>
             <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
+              <a:srgbClr val="B3B3B3"/>
             </a:solidFill>
           </a:ln>
         </c:spPr>
         <c:txPr>
           <a:bodyPr/>
+          <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:uFill>
                   <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a:uFill>
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="50830225"/>
@@ -811,7 +895,7 @@
         <a:noFill/>
         <a:ln>
           <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
+            <a:srgbClr val="B3B3B3"/>
           </a:solidFill>
         </a:ln>
       </c:spPr>
@@ -828,22 +912,30 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="ffffff"/>
+      <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
     <a:ln>
       <a:noFill/>
     </a:ln>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
+  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -852,26 +944,26 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+              <a:defRPr sz="1300" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:uFill>
                   <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a:uFill>
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+              <a:rPr lang="en-US" sz="1300" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:uFill>
                   <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a:uFill>
                 <a:latin typeface="Arial"/>
@@ -885,6 +977,7 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
+      <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -903,9 +996,6 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
             <a:ln w="28800">
               <a:noFill/>
             </a:ln>
@@ -920,20 +1010,25 @@
             </c:spPr>
           </c:marker>
           <c:dLbls>
-            <c:dLbl>
-              <c:idx val="3"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:trendline>
             <c:spPr>
@@ -944,8 +1039,6 @@
               </a:ln>
             </c:spPr>
             <c:trendlineType val="linear"/>
-            <c:forward val="0"/>
-            <c:backward val="0"/>
             <c:dispRSqr val="0"/>
             <c:dispEq val="0"/>
           </c:trendline>
@@ -956,19 +1049,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.772199959590517</c:v>
+                  <c:v>0.77219995959051735</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.708385071743929</c:v>
+                  <c:v>0.70838507174392928</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.503517245850622</c:v>
+                  <c:v>0.50351724585062241</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.984725715944273</c:v>
+                  <c:v>0.98472571594427249</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.965430699481865</c:v>
+                  <c:v>0.96543069948186533</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -980,25 +1073,38 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.855784836540691</c:v>
+                  <c:v>0.85578483654069093</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.51856163497607</c:v>
+                  <c:v>0.51856163497607033</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.924577373211963</c:v>
+                  <c:v>0.92457737321196354</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.622001918771986</c:v>
+                  <c:v>0.62200191877198596</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.784524449220849</c:v>
+                  <c:v>0.78452444922084896</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-35A1-4D2E-9283-1340C08C275B}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:axId val="65285430"/>
         <c:axId val="35097683"/>
       </c:scatterChart>
@@ -1013,7 +1119,7 @@
           <c:spPr>
             <a:ln>
               <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
+                <a:srgbClr val="B3B3B3"/>
               </a:solidFill>
             </a:ln>
           </c:spPr>
@@ -1025,26 +1131,26 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                  <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
                     <a:uFill>
                       <a:solidFill>
-                        <a:srgbClr val="ffffff"/>
+                        <a:srgbClr val="FFFFFF"/>
                       </a:solidFill>
                     </a:uFill>
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                  <a:rPr lang="en-US" sz="900" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
                     <a:uFill>
                       <a:solidFill>
-                        <a:srgbClr val="ffffff"/>
+                        <a:srgbClr val="FFFFFF"/>
                       </a:solidFill>
                     </a:uFill>
                     <a:latin typeface="Arial"/>
@@ -1063,26 +1169,28 @@
         <c:spPr>
           <a:ln>
             <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
+              <a:srgbClr val="B3B3B3"/>
             </a:solidFill>
           </a:ln>
         </c:spPr>
         <c:txPr>
           <a:bodyPr/>
+          <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:uFill>
                   <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a:uFill>
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="35097683"/>
@@ -1100,7 +1208,7 @@
           <c:spPr>
             <a:ln>
               <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
+                <a:srgbClr val="B3B3B3"/>
               </a:solidFill>
             </a:ln>
           </c:spPr>
@@ -1112,26 +1220,26 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                  <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
                     <a:uFill>
                       <a:solidFill>
-                        <a:srgbClr val="ffffff"/>
+                        <a:srgbClr val="FFFFFF"/>
                       </a:solidFill>
                     </a:uFill>
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                  <a:rPr lang="en-US" sz="900" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
                     <a:uFill>
                       <a:solidFill>
-                        <a:srgbClr val="ffffff"/>
+                        <a:srgbClr val="FFFFFF"/>
                       </a:solidFill>
                     </a:uFill>
                     <a:latin typeface="Arial"/>
@@ -1150,26 +1258,28 @@
         <c:spPr>
           <a:ln>
             <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
+              <a:srgbClr val="B3B3B3"/>
             </a:solidFill>
           </a:ln>
         </c:spPr>
         <c:txPr>
           <a:bodyPr/>
+          <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:uFill>
                   <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a:uFill>
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="65285430"/>
@@ -1180,7 +1290,7 @@
         <a:noFill/>
         <a:ln>
           <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
+            <a:srgbClr val="B3B3B3"/>
           </a:solidFill>
         </a:ln>
       </c:spPr>
@@ -1197,22 +1307,30 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="span"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="ffffff"/>
+      <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
     <a:ln>
       <a:noFill/>
     </a:ln>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
+  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1221,26 +1339,26 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+              <a:defRPr sz="1300" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:uFill>
                   <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a:uFill>
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+              <a:rPr lang="en-US" sz="1300" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:uFill>
                   <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a:uFill>
                 <a:latin typeface="Arial"/>
@@ -1254,6 +1372,7 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
+      <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -1272,9 +1391,6 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
             <a:ln w="28800">
               <a:noFill/>
             </a:ln>
@@ -1289,12 +1405,25 @@
             </c:spPr>
           </c:marker>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:xVal>
             <c:numRef>
@@ -1327,25 +1456,38 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.855784836540691</c:v>
+                  <c:v>0.85578483654069093</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.51856163497607</c:v>
+                  <c:v>0.51856163497607033</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.924577373211963</c:v>
+                  <c:v>0.92457737321196354</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.622001918771986</c:v>
+                  <c:v>0.62200191877198596</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.784524449220849</c:v>
+                  <c:v>0.78452444922084896</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D324-4B4A-B948-D2BAD672ABEB}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:axId val="65112589"/>
         <c:axId val="42195646"/>
       </c:scatterChart>
@@ -1363,26 +1505,26 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                  <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
                     <a:uFill>
                       <a:solidFill>
-                        <a:srgbClr val="ffffff"/>
+                        <a:srgbClr val="FFFFFF"/>
                       </a:solidFill>
                     </a:uFill>
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                  <a:rPr lang="en-US" sz="900" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
                     <a:uFill>
                       <a:solidFill>
-                        <a:srgbClr val="ffffff"/>
+                        <a:srgbClr val="FFFFFF"/>
                       </a:solidFill>
                     </a:uFill>
                     <a:latin typeface="Arial"/>
@@ -1401,26 +1543,28 @@
         <c:spPr>
           <a:ln>
             <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
+              <a:srgbClr val="B3B3B3"/>
             </a:solidFill>
           </a:ln>
         </c:spPr>
         <c:txPr>
           <a:bodyPr/>
+          <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:uFill>
                   <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a:uFill>
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="42195646"/>
@@ -1438,7 +1582,7 @@
           <c:spPr>
             <a:ln>
               <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
+                <a:srgbClr val="B3B3B3"/>
               </a:solidFill>
             </a:ln>
           </c:spPr>
@@ -1450,26 +1594,26 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                  <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
                     <a:uFill>
                       <a:solidFill>
-                        <a:srgbClr val="ffffff"/>
+                        <a:srgbClr val="FFFFFF"/>
                       </a:solidFill>
                     </a:uFill>
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                  <a:rPr lang="en-US" sz="900" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
                     <a:uFill>
                       <a:solidFill>
-                        <a:srgbClr val="ffffff"/>
+                        <a:srgbClr val="FFFFFF"/>
                       </a:solidFill>
                     </a:uFill>
                     <a:latin typeface="Arial"/>
@@ -1488,26 +1632,28 @@
         <c:spPr>
           <a:ln>
             <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
+              <a:srgbClr val="B3B3B3"/>
             </a:solidFill>
           </a:ln>
         </c:spPr>
         <c:txPr>
           <a:bodyPr/>
+          <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:uFill>
                   <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a:uFill>
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="65112589"/>
@@ -1518,7 +1664,7 @@
         <a:noFill/>
         <a:ln>
           <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
+            <a:srgbClr val="B3B3B3"/>
           </a:solidFill>
         </a:ln>
       </c:spPr>
@@ -1535,20 +1681,1983 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="span"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="ffffff"/>
+      <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
     <a:ln>
       <a:noFill/>
     </a:ln>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Glimmer evaluation'!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GC value</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Glimmer evaluation'!$I$2:$I$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.92200000000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.52900000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.91</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.58599999999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.82899999999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Glimmer evaluation'!$J$2:$J$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.51</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-36E8-496B-AEB5-506C0DF47873}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2032905216"/>
+        <c:axId val="2002880064"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2032905216"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2002880064"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2002880064"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2032905216"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>GC</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+              <a:t> content and prediction accuracy</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="zh-CN"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Glimmer evaluation'!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Glimmer evaluation'!$J$2:$J$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.51</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Glimmer evaluation'!$K$2:$K$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.92200000000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.52900000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.91</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.58599999999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.82899999999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6674-4C58-BF35-07FBF2DEB5C0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2032926432"/>
+        <c:axId val="2002892592"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2032926432"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>GC</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+                  <a:t> content</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" altLang="zh-CN"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2002892592"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2002892592"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>AC </a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2032926432"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
@@ -1562,14 +3671,20 @@
       <xdr:row>35</xdr:row>
       <xdr:rowOff>162720</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name=""/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="2464200" y="2610720"/>
-        <a:ext cx="5760000" cy="3241440"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1592,14 +3707,20 @@
       <xdr:row>33</xdr:row>
       <xdr:rowOff>114840</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="1" name=""/>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="8560800" y="2237400"/>
-        <a:ext cx="5760000" cy="3241800"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1622,14 +3743,20 @@
       <xdr:row>54</xdr:row>
       <xdr:rowOff>57240</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name=""/>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="8006400" y="5594040"/>
-        <a:ext cx="5760000" cy="3241440"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1642,287 +3769,656 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1014412</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>33337</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{764463E3-50AB-4831-B567-FB9C756229CF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>204787</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>147637</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B362EAB9-BEB8-471A-BA6F-EA402DD87046}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.5051020408163"/>
-    <col collapsed="false" hidden="false" max="6" min="3" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="15.5612244897959"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="30.8418367346939"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="19.3112244897959"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="11.5204081632653"/>
+    <col min="1" max="1" width="11.5703125"/>
+    <col min="2" max="2" width="22.5703125"/>
+    <col min="3" max="6" width="11.5703125"/>
+    <col min="7" max="8" width="15.5703125"/>
+    <col min="9" max="9" width="30.85546875"/>
+    <col min="10" max="10" width="19.28515625"/>
+    <col min="11" max="1025" width="11.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1" s="1" t="b">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C1" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="2" t="s">
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2" t="s">
+      <c r="I1" s="1"/>
+      <c r="J1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="F2" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="G2" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="0" t="s">
+      <c r="H2" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="0" t="s">
+      <c r="I2" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="0" t="s">
+      <c r="J2" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="0" t="s">
+      <c r="K2" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="0" t="s">
+      <c r="L2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3">
         <v>9</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3">
         <v>3669</v>
       </c>
-      <c r="D3" s="0" t="n">
-        <v>4.64</v>
-      </c>
-      <c r="E3" s="0" t="n">
-        <f aca="false">C3/(D3*1024)</f>
-        <v>0.772199959590517</v>
-      </c>
-      <c r="F3" s="0" t="n">
+      <c r="D3">
+        <v>4.6399999999999997</v>
+      </c>
+      <c r="E3">
+        <f>C3/(D3*1024)</f>
+        <v>0.77219995959051735</v>
+      </c>
+      <c r="F3">
         <v>0.51</v>
       </c>
-      <c r="G3" s="0" t="n">
+      <c r="G3">
         <v>4313</v>
       </c>
-      <c r="H3" s="0" t="n">
+      <c r="H3">
         <v>5079</v>
       </c>
-      <c r="I3" s="0" t="n">
+      <c r="I3">
         <v>0.92</v>
       </c>
-      <c r="J3" s="0" t="n">
+      <c r="J3">
         <v>3691</v>
       </c>
-      <c r="K3" s="0" t="n">
-        <f aca="false">J3/G3</f>
-        <v>0.855784836540691</v>
-      </c>
-      <c r="L3" s="0" t="n">
-        <f aca="false">J3/H3</f>
-        <v>0.726717857846033</v>
+      <c r="K3">
+        <f>J3/G3</f>
+        <v>0.85578483654069093</v>
+      </c>
+      <c r="L3">
+        <f>J3/H3</f>
+        <v>0.72671785784603271</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4">
         <v>17</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4">
         <v>6572</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="D4">
         <v>9.06</v>
       </c>
-      <c r="E4" s="0" t="n">
-        <f aca="false">C4/(D4*1024)</f>
-        <v>0.708385071743929</v>
-      </c>
-      <c r="F4" s="0" t="n">
+      <c r="E4">
+        <f>C4/(D4*1024)</f>
+        <v>0.70838507174392928</v>
+      </c>
+      <c r="F4">
         <v>0.72</v>
       </c>
-      <c r="G4" s="0" t="n">
+      <c r="G4">
         <v>7731</v>
       </c>
-      <c r="H4" s="0" t="n">
+      <c r="H4">
         <v>7172</v>
       </c>
-      <c r="I4" s="0" t="n">
+      <c r="I4">
         <v>0.52</v>
       </c>
-      <c r="J4" s="0" t="n">
+      <c r="J4">
         <v>4009</v>
       </c>
-      <c r="K4" s="0" t="n">
-        <f aca="false">J4/G4</f>
-        <v>0.51856163497607</v>
-      </c>
-      <c r="L4" s="0" t="n">
-        <f aca="false">J4/H4</f>
-        <v>0.558979364194088</v>
+      <c r="K4">
+        <f>J4/G4</f>
+        <v>0.51856163497607033</v>
+      </c>
+      <c r="L4">
+        <f>J4/H4</f>
+        <v>0.55897936419408811</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5">
         <v>24</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="C5">
         <v>6213</v>
       </c>
-      <c r="D5" s="0" t="n">
+      <c r="D5">
         <v>12.05</v>
       </c>
-      <c r="E5" s="0" t="n">
-        <f aca="false">C5/(D5*1024)</f>
-        <v>0.503517245850622</v>
-      </c>
-      <c r="F5" s="0" t="n">
+      <c r="E5">
+        <f>C5/(D5*1024)</f>
+        <v>0.50351724585062241</v>
+      </c>
+      <c r="F5">
         <v>0.38</v>
       </c>
-      <c r="G5" s="0" t="n">
+      <c r="G5">
         <v>769</v>
       </c>
-      <c r="H5" s="0" t="n">
+      <c r="H5">
         <v>724</v>
       </c>
-      <c r="I5" s="0" t="n">
+      <c r="I5">
         <v>0.91</v>
       </c>
-      <c r="J5" s="0" t="n">
+      <c r="J5">
         <v>711</v>
       </c>
-      <c r="K5" s="0" t="n">
-        <f aca="false">J5/G5</f>
-        <v>0.924577373211963</v>
-      </c>
-      <c r="L5" s="0" t="n">
-        <f aca="false">J5/H5</f>
-        <v>0.982044198895028</v>
+      <c r="K5">
+        <f>J5/G5</f>
+        <v>0.92457737321196354</v>
+      </c>
+      <c r="L5">
+        <f>J5/H5</f>
+        <v>0.98204419889502759</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6">
         <v>49</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="0" t="n">
+      <c r="C6">
         <v>3257</v>
       </c>
-      <c r="D6" s="0" t="n">
+      <c r="D6">
         <v>3.23</v>
       </c>
-      <c r="E6" s="0" t="n">
-        <f aca="false">C6/(D6*1024)</f>
-        <v>0.984725715944273</v>
-      </c>
-      <c r="F6" s="0" t="n">
+      <c r="E6">
+        <f>C6/(D6*1024)</f>
+        <v>0.98472571594427249</v>
+      </c>
+      <c r="F6">
         <v>0.7</v>
       </c>
-      <c r="G6" s="0" t="n">
+      <c r="G6">
         <v>3127</v>
       </c>
-      <c r="H6" s="0" t="n">
+      <c r="H6">
         <v>2778</v>
       </c>
-      <c r="I6" s="0" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="J6" s="0" t="n">
+      <c r="I6">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="J6">
         <v>1945</v>
       </c>
-      <c r="K6" s="0" t="n">
-        <f aca="false">J6/G6</f>
-        <v>0.622001918771986</v>
-      </c>
-      <c r="L6" s="0" t="n">
-        <f aca="false">J6/H6</f>
-        <v>0.700143988480922</v>
+      <c r="K6">
+        <f>J6/G6</f>
+        <v>0.62200191877198596</v>
+      </c>
+      <c r="L6">
+        <f>J6/H6</f>
+        <v>0.70014398848092152</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7">
         <v>51</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="0" t="n">
+      <c r="C7">
         <v>1908</v>
       </c>
-      <c r="D7" s="0" t="n">
+      <c r="D7">
         <v>1.93</v>
       </c>
-      <c r="E7" s="0" t="n">
-        <f aca="false">C7/(D7*1024)</f>
-        <v>0.965430699481865</v>
-      </c>
-      <c r="F7" s="0" t="n">
+      <c r="E7">
+        <f>C7/(D7*1024)</f>
+        <v>0.96543069948186533</v>
+      </c>
+      <c r="F7">
         <v>0.64</v>
       </c>
-      <c r="G7" s="0" t="n">
+      <c r="G7">
         <v>1861</v>
       </c>
-      <c r="H7" s="0" t="n">
+      <c r="H7">
         <v>1758</v>
       </c>
-      <c r="I7" s="0" t="n">
+      <c r="I7">
         <v>0.82</v>
       </c>
-      <c r="J7" s="0" t="n">
+      <c r="J7">
         <v>1460</v>
       </c>
-      <c r="K7" s="0" t="n">
-        <f aca="false">J7/G7</f>
-        <v>0.784524449220849</v>
-      </c>
-      <c r="L7" s="0" t="n">
-        <f aca="false">J7/H7</f>
-        <v>0.830489192263936</v>
+      <c r="K7">
+        <f>J7/G7</f>
+        <v>0.78452444922084896</v>
+      </c>
+      <c r="L7">
+        <f>J7/H7</f>
+        <v>0.83048919226393625</v>
       </c>
     </row>
   </sheetData>
@@ -1931,10 +4427,10 @@
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="J1:L1"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
@@ -1943,27 +4439,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:I6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I6" sqref="B1:I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.1989795918367"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.9795918367347"/>
-    <col collapsed="false" hidden="true" max="3" min="3" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.4183673469388"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="7.08163265306122"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="11.5204081632653"/>
+    <col min="1" max="1" width="18.140625"/>
+    <col min="2" max="2" width="26"/>
+    <col min="3" max="3" width="18.42578125" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125"/>
+    <col min="5" max="5" width="23" customWidth="1"/>
+    <col min="6" max="1025" width="11.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
@@ -1971,207 +4464,247 @@
         <v>3</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>23</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>12</v>
       </c>
       <c r="I1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="4">
+        <v>9</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="4">
+        <v>5323</v>
+      </c>
+      <c r="D2" s="4">
+        <v>6329</v>
+      </c>
+      <c r="E2" s="4">
+        <v>888</v>
+      </c>
+      <c r="F2" s="4">
+        <v>773</v>
+      </c>
+      <c r="G2" s="4">
+        <v>0.95</v>
+      </c>
+      <c r="H2" s="4">
+        <v>0.91700000000000004</v>
+      </c>
+      <c r="I2" s="4">
+        <v>0.92200000000000004</v>
+      </c>
+      <c r="J2">
+        <v>0.51</v>
+      </c>
+      <c r="K2" s="4">
+        <v>0.92200000000000004</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="4">
+        <v>17</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="4">
+        <v>8548</v>
+      </c>
+      <c r="D3" s="4">
+        <v>8175</v>
+      </c>
+      <c r="E3" s="4">
+        <v>939</v>
+      </c>
+      <c r="F3" s="4">
+        <v>954</v>
+      </c>
+      <c r="G3" s="4">
+        <v>0.59</v>
+      </c>
+      <c r="H3" s="4">
+        <v>0.61</v>
+      </c>
+      <c r="I3" s="4">
+        <v>0.52900000000000003</v>
+      </c>
+      <c r="J3">
+        <v>0.72</v>
+      </c>
+      <c r="K3" s="4">
+        <v>0.52900000000000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
         <v>24</v>
       </c>
+      <c r="B4" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="4">
+        <v>921</v>
+      </c>
+      <c r="D4" s="4">
+        <v>1604</v>
+      </c>
+      <c r="E4" s="4">
+        <v>1235</v>
+      </c>
+      <c r="F4" s="4">
+        <v>782</v>
+      </c>
+      <c r="G4" s="4">
+        <v>0.97</v>
+      </c>
+      <c r="H4" s="4">
+        <v>0.88</v>
+      </c>
+      <c r="I4" s="4">
+        <v>0.91</v>
+      </c>
+      <c r="J4">
+        <v>0.38</v>
+      </c>
+      <c r="K4" s="4">
+        <v>0.91</v>
+      </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="n">
-        <v>9</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="4" t="n">
-        <v>5323</v>
-      </c>
-      <c r="D2" s="4" t="n">
-        <v>6329</v>
-      </c>
-      <c r="E2" s="4" t="n">
-        <v>888</v>
-      </c>
-      <c r="F2" s="4" t="n">
-        <v>773</v>
-      </c>
-      <c r="G2" s="4" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="H2" s="4" t="n">
-        <v>0.917</v>
-      </c>
-      <c r="I2" s="4" t="n">
-        <v>0.922</v>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
+        <v>49</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="4">
+        <v>3375</v>
+      </c>
+      <c r="D5" s="4">
+        <v>3167</v>
+      </c>
+      <c r="E5" s="4">
+        <v>879</v>
+      </c>
+      <c r="F5" s="4">
+        <v>869</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0.623</v>
+      </c>
+      <c r="H5" s="4">
+        <v>0.67100000000000004</v>
+      </c>
+      <c r="I5" s="4">
+        <v>0.58599999999999997</v>
+      </c>
+      <c r="J5">
+        <v>0.7</v>
+      </c>
+      <c r="K5" s="4">
+        <v>0.58599999999999997</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="n">
-        <v>17</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="4" t="n">
-        <v>8548</v>
-      </c>
-      <c r="D3" s="4" t="n">
-        <v>8175</v>
-      </c>
-      <c r="E3" s="4" t="n">
-        <v>939</v>
-      </c>
-      <c r="F3" s="4" t="n">
-        <v>954</v>
-      </c>
-      <c r="G3" s="4" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="H3" s="4" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="I3" s="4" t="n">
-        <v>0.529</v>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
+        <v>51</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="4">
+        <v>1862</v>
+      </c>
+      <c r="D6" s="4">
+        <v>1955</v>
+      </c>
+      <c r="E6" s="4">
+        <v>973</v>
+      </c>
+      <c r="F6" s="4">
+        <v>897</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0.84099999999999997</v>
+      </c>
+      <c r="H6" s="4">
+        <v>0.86899999999999999</v>
+      </c>
+      <c r="I6" s="4">
+        <v>0.82899999999999996</v>
+      </c>
+      <c r="J6">
+        <v>0.64</v>
+      </c>
+      <c r="K6" s="4">
+        <v>0.82899999999999996</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="n">
-        <v>24</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="4" t="n">
-        <v>921</v>
-      </c>
-      <c r="D4" s="4" t="n">
-        <v>1604</v>
-      </c>
-      <c r="E4" s="4" t="n">
-        <v>1235</v>
-      </c>
-      <c r="F4" s="4" t="n">
-        <v>782</v>
-      </c>
-      <c r="G4" s="4" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="H4" s="4" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="I4" s="4" t="n">
-        <v>0.91</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="n">
-        <v>49</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="4" t="n">
-        <v>3375</v>
-      </c>
-      <c r="D5" s="4" t="n">
-        <v>3167</v>
-      </c>
-      <c r="E5" s="4" t="n">
-        <v>879</v>
-      </c>
-      <c r="F5" s="4" t="n">
-        <v>869</v>
-      </c>
-      <c r="G5" s="4" t="n">
-        <v>0.623</v>
-      </c>
-      <c r="H5" s="4" t="n">
-        <v>0.671</v>
-      </c>
-      <c r="I5" s="4" t="n">
-        <v>0.586</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4" t="n">
-        <v>51</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>1862</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>1955</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>973</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>897</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>0.841</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>0.869</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>0.829</v>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K7">
+        <f>AVERAGE(K2:K6)</f>
+        <v>0.75519999999999998</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:I6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AMK7"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:G1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="11.8061224489796"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="27.6887755102041"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="22.1275510204082"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="21.9948979591837"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="29.219387755102"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="5" width="5.73979591836735"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="5" width="10.8826530612245"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="5" width="11.5204081632653"/>
+    <col min="1" max="1" width="11.85546875" style="5"/>
+    <col min="2" max="2" width="27.7109375" style="5"/>
+    <col min="3" max="3" width="22.140625" style="5"/>
+    <col min="4" max="4" width="22" style="5"/>
+    <col min="5" max="5" width="29.28515625" style="5"/>
+    <col min="6" max="7" width="5.7109375" style="5"/>
+    <col min="8" max="9" width="10.85546875" style="5"/>
+    <col min="10" max="10" width="12.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="1025" width="11.5703125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>2</v>
       </c>
@@ -2179,187 +4712,226 @@
         <v>3</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>29</v>
-      </c>
       <c r="G1" s="6" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="I1" s="6" t="s">
         <v>13</v>
       </c>
+      <c r="J1" s="6" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5" t="n">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="5">
         <v>9</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="5" t="n">
+      <c r="C2" s="5">
         <v>4313</v>
       </c>
-      <c r="D2" s="5" t="n">
+      <c r="D2" s="5">
         <v>5079</v>
       </c>
-      <c r="E2" s="5" t="n">
+      <c r="E2" s="5">
         <v>3691</v>
       </c>
-      <c r="F2" s="5" t="n">
-        <f aca="false"> C2-E2</f>
+      <c r="F2" s="5">
+        <f>C2-E2</f>
         <v>622</v>
       </c>
-      <c r="G2" s="5" t="n">
-        <f aca="false">D2-E2</f>
+      <c r="G2" s="5">
+        <f>D2-E2</f>
         <v>1388</v>
       </c>
-      <c r="H2" s="7" t="n">
-        <v>0.855784836540691</v>
-      </c>
-      <c r="I2" s="7" t="n">
-        <v>0.726717857846033</v>
+      <c r="H2" s="7">
+        <f>E2/D2</f>
+        <v>0.72671785784603271</v>
+      </c>
+      <c r="I2" s="7">
+        <f>E2/C2</f>
+        <v>0.85578483654069093</v>
+      </c>
+      <c r="J2" s="9">
+        <f>2*E2/(C2+D2)</f>
+        <v>0.78598807495741052</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5" t="n">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="5">
         <v>17</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="5" t="n">
+      <c r="C3" s="5">
         <v>7731</v>
       </c>
-      <c r="D3" s="5" t="n">
+      <c r="D3" s="5">
         <v>7172</v>
       </c>
-      <c r="E3" s="5" t="n">
+      <c r="E3" s="5">
         <v>4009</v>
       </c>
-      <c r="F3" s="5" t="n">
-        <f aca="false"> C3-E3</f>
+      <c r="F3" s="5">
+        <f>C3-E3</f>
         <v>3722</v>
       </c>
-      <c r="G3" s="5" t="n">
-        <f aca="false">D3-E3</f>
+      <c r="G3" s="5">
+        <f>D3-E3</f>
         <v>3163</v>
       </c>
-      <c r="H3" s="7" t="n">
-        <v>0.51856163497607</v>
-      </c>
-      <c r="I3" s="7" t="n">
-        <v>0.558979364194088</v>
+      <c r="H3" s="7">
+        <f t="shared" ref="H3:H6" si="0">E3/D3</f>
+        <v>0.55897936419408811</v>
+      </c>
+      <c r="I3" s="7">
+        <f t="shared" ref="I3:I6" si="1">E3/C3</f>
+        <v>0.51856163497607033</v>
+      </c>
+      <c r="J3" s="9">
+        <f t="shared" ref="J3:J6" si="2">2*E3/(C3+D3)</f>
+        <v>0.53801248070858221</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5" t="n">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="5">
         <v>24</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" s="5" t="n">
+        <v>26</v>
+      </c>
+      <c r="C4" s="5">
+        <v>769</v>
+      </c>
+      <c r="D4" s="5">
         <v>724</v>
       </c>
-      <c r="D4" s="5" t="n">
-        <v>724</v>
-      </c>
-      <c r="E4" s="5" t="n">
+      <c r="E4" s="5">
         <v>711</v>
       </c>
-      <c r="F4" s="5" t="n">
-        <f aca="false"> C4-E4</f>
+      <c r="F4" s="5">
+        <f>C4-E4</f>
+        <v>58</v>
+      </c>
+      <c r="G4" s="5">
+        <f>D4-E4</f>
         <v>13</v>
       </c>
-      <c r="G4" s="5" t="n">
-        <f aca="false">D4-E4</f>
-        <v>13</v>
-      </c>
-      <c r="H4" s="7" t="n">
-        <v>0.924577373211963</v>
-      </c>
-      <c r="I4" s="7" t="n">
-        <v>0.982044198895028</v>
+      <c r="H4" s="7">
+        <f t="shared" si="0"/>
+        <v>0.98204419889502759</v>
+      </c>
+      <c r="I4" s="7">
+        <f t="shared" si="1"/>
+        <v>0.92457737321196354</v>
+      </c>
+      <c r="J4" s="9">
+        <f t="shared" si="2"/>
+        <v>0.95244474212993968</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5" t="n">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="5">
         <v>49</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="5" t="n">
+      <c r="C5" s="5">
+        <v>3127</v>
+      </c>
+      <c r="D5" s="5">
         <v>2778</v>
       </c>
-      <c r="D5" s="5" t="n">
-        <v>2778</v>
-      </c>
-      <c r="E5" s="5" t="n">
+      <c r="E5" s="5">
         <v>1945</v>
       </c>
-      <c r="F5" s="5" t="n">
-        <f aca="false"> C5-E5</f>
+      <c r="F5" s="5">
+        <f>C5-E5</f>
+        <v>1182</v>
+      </c>
+      <c r="G5" s="5">
+        <f>D5-E5</f>
         <v>833</v>
       </c>
-      <c r="G5" s="5" t="n">
-        <f aca="false">D5-E5</f>
-        <v>833</v>
-      </c>
-      <c r="H5" s="7" t="n">
-        <v>0.622001918771986</v>
-      </c>
-      <c r="I5" s="7" t="n">
-        <v>0.700143988480922</v>
+      <c r="H5" s="7">
+        <f t="shared" si="0"/>
+        <v>0.70014398848092152</v>
+      </c>
+      <c r="I5" s="7">
+        <f t="shared" si="1"/>
+        <v>0.62200191877198596</v>
+      </c>
+      <c r="J5" s="9">
+        <f t="shared" si="2"/>
+        <v>0.65876375952582555</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5" t="n">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="5">
         <v>51</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="5" t="n">
+      <c r="C6" s="5">
+        <v>1861</v>
+      </c>
+      <c r="D6" s="5">
         <v>1752</v>
       </c>
-      <c r="D6" s="5" t="n">
-        <v>1758</v>
-      </c>
-      <c r="E6" s="5" t="n">
+      <c r="E6" s="5">
         <v>1460</v>
       </c>
-      <c r="F6" s="5" t="n">
-        <f aca="false"> C6-E6</f>
+      <c r="F6" s="5">
+        <f>C6-E6</f>
+        <v>401</v>
+      </c>
+      <c r="G6" s="5">
+        <f>D6-E6</f>
         <v>292</v>
       </c>
-      <c r="G6" s="5" t="n">
-        <f aca="false">D6-E6</f>
-        <v>298</v>
-      </c>
-      <c r="H6" s="7" t="n">
-        <v>0.784524449220849</v>
-      </c>
-      <c r="I6" s="7" t="n">
-        <v>0.830489192263936</v>
+      <c r="H6" s="7">
+        <f t="shared" si="0"/>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="I6" s="7">
+        <f t="shared" si="1"/>
+        <v>0.78452444922084896</v>
+      </c>
+      <c r="J6" s="9">
+        <f t="shared" si="2"/>
+        <v>0.80819263769720451</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J7" s="9">
+        <f>AVERAGE(J2:J6)</f>
+        <v>0.74868033900379238</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
@@ -2367,26 +4939,23 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D24" activeCellId="0" sqref="D24"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.234693877551"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.7857142857143"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.6377551020408"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="11.5204081632653"/>
+    <col min="1" max="1" width="11.5703125"/>
+    <col min="2" max="2" width="27.28515625"/>
+    <col min="3" max="3" width="22.7109375"/>
+    <col min="4" max="4" width="17.5703125"/>
+    <col min="5" max="1025" width="11.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>2</v>
       </c>
@@ -2394,7 +4963,7 @@
         <v>3</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>9</v>
@@ -2406,111 +4975,110 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="n">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="4">
         <v>9</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="4" t="n">
+      <c r="C2" s="4">
         <v>4313</v>
       </c>
-      <c r="D2" s="4" t="n">
+      <c r="D2" s="4">
         <v>5079</v>
       </c>
-      <c r="E2" s="4" t="n">
-        <v>0.855784836540691</v>
-      </c>
-      <c r="F2" s="4" t="n">
-        <v>0.726717857846033</v>
+      <c r="E2" s="4">
+        <v>0.85578483654069104</v>
+      </c>
+      <c r="F2" s="4">
+        <v>0.72671785784603304</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="n">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="4">
         <v>17</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="4" t="n">
+      <c r="C3" s="4">
         <v>7731</v>
       </c>
-      <c r="D3" s="4" t="n">
+      <c r="D3" s="4">
         <v>7172</v>
       </c>
-      <c r="E3" s="4" t="n">
+      <c r="E3" s="4">
         <v>0.51856163497607</v>
       </c>
-      <c r="F3" s="4" t="n">
+      <c r="F3" s="4">
         <v>0.558979364194088</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="n">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
         <v>24</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" s="4" t="n">
+        <v>26</v>
+      </c>
+      <c r="C4" s="4">
         <v>724</v>
       </c>
-      <c r="D4" s="4" t="n">
+      <c r="D4" s="4">
         <v>724</v>
       </c>
-      <c r="E4" s="4" t="n">
-        <v>0.924577373211963</v>
-      </c>
-      <c r="F4" s="4" t="n">
-        <v>0.982044198895028</v>
+      <c r="E4" s="4">
+        <v>0.92457737321196298</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0.98204419889502803</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="n">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
         <v>49</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="4" t="n">
+      <c r="C5" s="4">
         <v>2778</v>
       </c>
-      <c r="D5" s="4" t="n">
+      <c r="D5" s="4">
         <v>2778</v>
       </c>
-      <c r="E5" s="4" t="n">
-        <v>0.622001918771986</v>
-      </c>
-      <c r="F5" s="4" t="n">
-        <v>0.700143988480922</v>
+      <c r="E5" s="4">
+        <v>0.62200191877198596</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0.70014398848092196</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4" t="n">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
         <v>51</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="4" t="n">
+      <c r="C6" s="4">
         <v>1752</v>
       </c>
-      <c r="D6" s="4" t="n">
+      <c r="D6" s="4">
         <v>1758</v>
       </c>
-      <c r="E6" s="4" t="n">
-        <v>0.784524449220849</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>0.830489192263936</v>
+      <c r="E6" s="4">
+        <v>0.78452444922084896</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0.83048919226393603</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
